--- a/TGU/Практика 4/Тестовая документация.xlsx
+++ b/TGU/Практика 4/Тестовая документация.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-листы" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="290">
   <si>
     <t xml:space="preserve">До применения техник тест-дизайна</t>
   </si>
@@ -29,15 +29,27 @@
     <t xml:space="preserve">После применения техник тест-дизайна</t>
   </si>
   <si>
+    <t xml:space="preserve">Проверка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Результат</t>
+  </si>
+  <si>
     <t xml:space="preserve">Smoke</t>
   </si>
   <si>
     <t xml:space="preserve">Проверка главной страницы</t>
   </si>
   <si>
+    <t xml:space="preserve">Skipped</t>
+  </si>
+  <si>
     <t xml:space="preserve">Проверка заголовока страницы и логотипа</t>
   </si>
   <si>
+    <t xml:space="preserve">Passed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Проверка UX/UI</t>
   </si>
   <si>
@@ -62,6 +74,9 @@
     <t xml:space="preserve">Проверка формы изменения телефона</t>
   </si>
   <si>
+    <t xml:space="preserve">Failed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Проверка формы смены пароля</t>
   </si>
   <si>
@@ -90,9 +105,6 @@
   </si>
   <si>
     <t xml:space="preserve">Общий</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Регистрация</t>
@@ -153,145 +165,145 @@
     <t xml:space="preserve">Попытка авторизации с не валидным данными</t>
   </si>
   <si>
+    <t xml:space="preserve">Проверка граничных значений</t>
+  </si>
+  <si>
     <t xml:space="preserve">Попытка авторизации с валидным данными</t>
   </si>
   <si>
+    <t xml:space="preserve">Проверка валидации методом эквивалентного разбиения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Функция отображения пароля (глаз)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валидация обязательных полей</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ссылки и интеграции</t>
   </si>
   <si>
-    <t xml:space="preserve">Функция отображения пароля (глаз)</t>
+    <t xml:space="preserve">Максимальная и минимальная длина.</t>
   </si>
   <si>
     <t xml:space="preserve">Проверка ссылок</t>
   </si>
   <si>
+    <t xml:space="preserve">Диапазон допустимых символов, спецсимволы.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Проверка интеграций</t>
   </si>
   <si>
-    <t xml:space="preserve">Валидация обязательных полей</t>
+    <t xml:space="preserve">Обязательность к заполнению.</t>
   </si>
   <si>
     <t xml:space="preserve">Проверка работы якорей</t>
   </si>
   <si>
-    <t xml:space="preserve">Максимальная и минимальная длина.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Диапазон допустимых символов, спецсимволы.</t>
+    <t xml:space="preserve">Система не отображает окно ошибки при незаполненных необязательных полях.</t>
   </si>
   <si>
     <t xml:space="preserve">Обработка ошибок </t>
   </si>
   <si>
-    <t xml:space="preserve">Обязательность к заполнению.</t>
+    <t xml:space="preserve">Ссылки на пользовательские соглашения</t>
   </si>
   <si>
     <t xml:space="preserve">Тестирование заполнения обязательных полей</t>
   </si>
   <si>
-    <t xml:space="preserve">Система не отображает окно ошибки при незаполненных необязательных полях.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Проверка отображение заглушек</t>
   </si>
   <si>
+    <t xml:space="preserve">Формы ввода</t>
+  </si>
+  <si>
     <t xml:space="preserve">Проверка наличия ошибок консоли</t>
   </si>
   <si>
-    <t xml:space="preserve">Ссылки на пользовательские соглашения</t>
+    <t xml:space="preserve">Числовые поля: они не должны принимать буквы, в этом случае должно отображаться соответствующее сообщение об ошибке.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отрицательные значения в числовых полях</t>
   </si>
   <si>
     <t xml:space="preserve">Работа с БД</t>
   </si>
   <si>
-    <t xml:space="preserve">Формы ввода</t>
+    <t xml:space="preserve">Протестируйте все поля ввода на спецсимволы.</t>
   </si>
   <si>
     <t xml:space="preserve">Тестирование обмена данными форм с БД</t>
   </si>
   <si>
-    <t xml:space="preserve">Числовые поля: они не должны принимать буквы, в этом случае должно отображаться соответствующее сообщение об ошибке.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отрицательные значения в числовых полях</t>
+    <t xml:space="preserve">Проверить что текст не выезжает за границы поля.</t>
   </si>
   <si>
     <t xml:space="preserve">Кеш, cookie и сессии</t>
   </si>
   <si>
-    <t xml:space="preserve">Протестируйте все поля ввода на спецсимволы.</t>
+    <t xml:space="preserve">Всплывающие сообщения</t>
   </si>
   <si>
     <t xml:space="preserve">Проверка кэша</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверить что текст не выезжает за границы поля.</t>
+    <t xml:space="preserve">Всплывающие сообщения («Это поле ограничено N знаками»).</t>
   </si>
   <si>
     <t xml:space="preserve">Проверка работы токенов</t>
   </si>
   <si>
+    <t xml:space="preserve">Подтверждающие сообщения отображается для операций обновления и удаления.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Проверка наличия куки</t>
   </si>
   <si>
-    <t xml:space="preserve">Всплывающие сообщения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всплывающие сообщения («Это поле ограничено N знаками»).</t>
+    <t xml:space="preserve">Сообщения об ошибках ввода.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Функциональность доступных кнопок.</t>
   </si>
   <si>
     <t xml:space="preserve">Безопасность</t>
   </si>
   <si>
-    <t xml:space="preserve">Подтверждающие сообщения отображается для операций обновления и удаления.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тестирование инъекций</t>
   </si>
   <si>
-    <t xml:space="preserve">Сообщения об ошибках ввода.</t>
+    <t xml:space="preserve">Проверка обработки различных ошибок (страница не найдена, тайм-аут, ошибка сервера и т.д.).</t>
   </si>
   <si>
     <t xml:space="preserve">Проверка шифрования </t>
   </si>
   <si>
-    <t xml:space="preserve">Функциональность доступных кнопок.</t>
+    <t xml:space="preserve">Проверка отображения ранее загруженных документов.</t>
   </si>
   <si>
     <t xml:space="preserve">UX/UI</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка обработки различных ошибок (страница не найдена, тайм-аут, ошибка сервера и т.д.).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Проверка орфографических и грамматических ошибок</t>
   </si>
   <si>
+    <t xml:space="preserve">Работа с файлами</t>
+  </si>
+  <si>
     <t xml:space="preserve">Проверка картинок, шрифтов, текстов</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка отображения ранее загруженных документов.</t>
+    <t xml:space="preserve">Функционал позволяет скачать/прикрепить/загрузить файлы/медиа (картинки, видео и т.д.).</t>
   </si>
   <si>
     <t xml:space="preserve">Проверка отступов между элементами</t>
   </si>
   <si>
+    <t xml:space="preserve">Тестирование валидации формы загрузки файлов</t>
+  </si>
+  <si>
     <t xml:space="preserve">Тестирование форм при разных разрешениях экрана</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Работа с файлами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Функционал позволяет скачать/прикрепить/загрузить файлы/медиа (картинки, видео и т.д.).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кросс-платформенное тестирование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тестирование валидации формы загрузки файлов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тестирование в различных средах</t>
   </si>
   <si>
     <r>
@@ -319,12 +331,24 @@
     <t xml:space="preserve">Функционал позволяет удалить ранее загруженные файлы.</t>
   </si>
   <si>
+    <t xml:space="preserve">Кросс-платформенное тестирование</t>
+  </si>
+  <si>
     <t xml:space="preserve">Проверить что файлы уходят на сервер только после нажатия соответствующей кнопки</t>
   </si>
   <si>
+    <t xml:space="preserve">Тестирование в различных средах</t>
+  </si>
+  <si>
     <t xml:space="preserve">Почтовая функциональность системы.</t>
   </si>
   <si>
+    <t xml:space="preserve">Автотесты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проведение авто-тестов</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сохранение кэша</t>
   </si>
   <si>
@@ -482,6 +506,9 @@
   </si>
   <si>
     <t xml:space="preserve">В результате применения техник тест дизайна кол-во тест-кейсов было сокращено с 258 до 28.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">от</t>
   </si>
   <si>
     <t xml:space="preserve">C525</t>
@@ -1088,7 +1115,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1109,20 +1136,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF95B3D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFDBB6"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFD7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFDDE8CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFFFDBB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFFFDBB6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAFD095"/>
-        <bgColor rgb="FF95B3D7"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF95B3D7"/>
-        <bgColor rgb="FF9999FF"/>
+        <bgColor rgb="FF729FCF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1171,7 +1222,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1188,16 +1239,40 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1208,16 +1283,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1252,11 +1327,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1294,16 +1369,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1314,7 +1389,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF95B3D7"/>
       <rgbColor rgb="FFFFA6A6"/>
@@ -1346,10 +1421,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E140"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D65" activeCellId="0" sqref="D65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1357,19 +1432,24 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="81.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="100.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="100.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="2"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1377,933 +1457,1437 @@
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
       <c r="D3" s="0"/>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0"/>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>2</v>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>3</v>
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0"/>
+      <c r="E6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="0"/>
+      <c r="E9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="0"/>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="0"/>
+      <c r="E11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="0"/>
+      <c r="E12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
+      <c r="B13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="0"/>
+      <c r="E13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
+      <c r="B14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="0"/>
+      <c r="E14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>13</v>
+      <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="0"/>
+      <c r="E15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>14</v>
+      <c r="B16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0"/>
+      <c r="E16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="0"/>
+      <c r="E17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>16</v>
+      <c r="B18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="0"/>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="0"/>
+      <c r="E19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="0"/>
+      <c r="E20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="0"/>
+      <c r="E21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="0"/>
+      <c r="E22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="0"/>
+      <c r="E23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="0"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
+      <c r="B25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="0"/>
+      <c r="E25" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17"/>
+      <c r="B27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="0"/>
+      <c r="E27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17"/>
+      <c r="B28" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="0"/>
+      <c r="E28" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="17"/>
+      <c r="B29" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="0"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="17"/>
+      <c r="B31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="4" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17"/>
+      <c r="B32" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="0"/>
+      <c r="E32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8"/>
-      <c r="B30" s="10"/>
-      <c r="D30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
-      <c r="B31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>38</v>
+    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="17"/>
+      <c r="B33" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="0"/>
+      <c r="E33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="17"/>
+      <c r="B34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="0"/>
+      <c r="E34" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A35" s="17"/>
+      <c r="B35" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
-      <c r="B36" s="10"/>
-      <c r="D36" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="A36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10"/>
-      <c r="B37" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>43</v>
+      <c r="A37" s="17"/>
+      <c r="B37" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="13"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="0"/>
+      <c r="E38" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="0"/>
-      <c r="D39" s="9" t="s">
-        <v>46</v>
+      <c r="A39" s="17"/>
+      <c r="B39" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="0"/>
+      <c r="E39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>48</v>
+      <c r="A40" s="17"/>
+      <c r="B40" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="0"/>
+      <c r="E40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8"/>
-      <c r="B42" s="10"/>
-      <c r="D42" s="4" t="s">
-        <v>51</v>
+      <c r="A41" s="17"/>
+      <c r="B41" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="0"/>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="13"/>
-    </row>
-    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8"/>
-      <c r="B44" s="10"/>
-      <c r="D44" s="9" t="s">
-        <v>53</v>
+      <c r="A43" s="14"/>
+      <c r="B43" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="0"/>
+      <c r="E43" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10"/>
-      <c r="B45" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>55</v>
+      <c r="A45" s="17"/>
+      <c r="B45" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="13"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="0"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="A47" s="17"/>
+      <c r="B47" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="0"/>
+      <c r="E47" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>60</v>
+      <c r="A48" s="17"/>
+      <c r="B48" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="0"/>
+      <c r="E48" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8"/>
-      <c r="B49" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="A49" s="14"/>
+      <c r="B49" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="0"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="D50" s="11" t="s">
-        <v>63</v>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="0"/>
+      <c r="E50" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10"/>
-      <c r="B51" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="13"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="9" t="s">
+      <c r="A52" s="17"/>
+      <c r="B52" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="0"/>
+      <c r="E52" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="17"/>
+      <c r="B53" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="0"/>
+      <c r="E53" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="17"/>
+      <c r="B54" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="0"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="17"/>
+      <c r="B55" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="0"/>
+      <c r="E55" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="0"/>
+      <c r="E57" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="21"/>
+    </row>
+    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="17"/>
+      <c r="B59" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="0"/>
+      <c r="E59" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="0"/>
+      <c r="E60" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17"/>
+      <c r="B61" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="17"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="17"/>
+      <c r="B62" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="0"/>
+      <c r="E62" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="17"/>
+      <c r="B63" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="0"/>
+      <c r="E63" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="17"/>
+      <c r="B64" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="0"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="17"/>
+      <c r="B65" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="0"/>
+      <c r="E65" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="17"/>
+      <c r="B66" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="0"/>
+      <c r="E66" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="14"/>
+      <c r="B68" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="0"/>
+      <c r="E68" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="14"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="14"/>
+      <c r="B70" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10"/>
-      <c r="B55" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="15"/>
-    </row>
-    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="D56" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="0"/>
-      <c r="D58" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10"/>
-      <c r="B59" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="D60" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10"/>
-      <c r="B61" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="13"/>
-    </row>
-    <row r="62" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10"/>
-      <c r="B62" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10"/>
-      <c r="B63" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10"/>
-      <c r="B64" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="0"/>
-      <c r="D64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10"/>
-      <c r="B65" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10"/>
-      <c r="B66" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="D67" s="0"/>
-    </row>
-    <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8"/>
-      <c r="B69" s="10"/>
-      <c r="D69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70" s="17"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="23"/>
     </row>
     <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8"/>
-      <c r="B71" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" s="17"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="23"/>
     </row>
     <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8"/>
-      <c r="B72" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D72" s="17"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="23"/>
     </row>
     <row r="73" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8"/>
-      <c r="B73" s="10"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
       <c r="D73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8"/>
-      <c r="B74" s="9" t="s">
+      <c r="A74" s="14"/>
+      <c r="B74" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="17"/>
+      <c r="B75" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="17"/>
+      <c r="B76" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="17"/>
+      <c r="B77" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="17"/>
+      <c r="B79" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="17"/>
+      <c r="B80" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="23"/>
+    </row>
+    <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="17"/>
+      <c r="B81" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="23"/>
+    </row>
+    <row r="82" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="23"/>
+    </row>
+    <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="17"/>
+      <c r="B83" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="23"/>
+    </row>
+    <row r="84" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="14"/>
+      <c r="B84" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="23"/>
+    </row>
+    <row r="85" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="14"/>
+      <c r="B85" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="14"/>
+      <c r="B86" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="17"/>
+      <c r="B87" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="17"/>
+      <c r="B88" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="14"/>
+      <c r="B89" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="14"/>
+      <c r="B90" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="17"/>
+    </row>
+    <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="14"/>
+      <c r="B91" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="14"/>
+      <c r="B92" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="14"/>
+      <c r="B93" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="0"/>
+    </row>
+    <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="14"/>
+      <c r="B94" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="0"/>
+    </row>
+    <row r="95" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="14"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="0"/>
+    </row>
+    <row r="96" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="14"/>
+      <c r="B96" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="9"/>
+    </row>
+    <row r="97" s="1" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="14"/>
+      <c r="B97" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="14"/>
+      <c r="B98" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="14"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+    </row>
+    <row r="100" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="17"/>
+      <c r="B100" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C100" s="9"/>
+    </row>
+    <row r="101" s="1" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="17"/>
+      <c r="B101" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="14"/>
+      <c r="B102" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="14"/>
+      <c r="B103" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="14"/>
+      <c r="B104" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="14"/>
+      <c r="B105" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="14"/>
+      <c r="B106" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="0"/>
+    </row>
+    <row r="107" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="17"/>
+      <c r="B107" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="17"/>
+      <c r="B108" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="14"/>
+      <c r="B109" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="14"/>
+      <c r="B110" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="14"/>
+      <c r="B111" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="14"/>
+      <c r="B112" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="14"/>
+      <c r="B113" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="14"/>
+      <c r="B114" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="14"/>
+      <c r="B115" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="14"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+    </row>
+    <row r="117" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="14"/>
+      <c r="B117" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D74" s="0"/>
-    </row>
-    <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10"/>
-      <c r="B75" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D75" s="0"/>
-    </row>
-    <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10"/>
-      <c r="B76" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" s="0"/>
-    </row>
-    <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10"/>
-      <c r="B77" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C77" s="0"/>
-      <c r="D77" s="0"/>
-    </row>
-    <row r="78" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8"/>
-      <c r="B78" s="10"/>
-      <c r="D78" s="0"/>
-    </row>
-    <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10"/>
-      <c r="B79" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" s="0"/>
-      <c r="D79" s="0"/>
-    </row>
-    <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10"/>
-      <c r="B80" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D80" s="17"/>
-    </row>
-    <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10"/>
-      <c r="B81" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D81" s="17"/>
-    </row>
-    <row r="82" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="D82" s="17"/>
-    </row>
-    <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="10"/>
-      <c r="B83" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="17"/>
-    </row>
-    <row r="84" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8"/>
-      <c r="B84" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D84" s="17"/>
-    </row>
-    <row r="85" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8"/>
-      <c r="B85" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D85" s="0"/>
-    </row>
-    <row r="86" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8"/>
-      <c r="B86" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D86" s="0"/>
-    </row>
-    <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10"/>
-      <c r="B87" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D87" s="0"/>
-    </row>
-    <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="10"/>
-      <c r="B88" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D88" s="0"/>
-    </row>
-    <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8"/>
-      <c r="B89" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D89" s="0"/>
-    </row>
-    <row r="90" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8"/>
-      <c r="B90" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D90" s="10"/>
-    </row>
-    <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8"/>
-      <c r="B91" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D91" s="0"/>
-    </row>
-    <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8"/>
-      <c r="B92" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D92" s="0"/>
-    </row>
-    <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8"/>
-      <c r="B93" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D93" s="0"/>
-    </row>
-    <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8"/>
-      <c r="B94" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D94" s="0"/>
-    </row>
-    <row r="95" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8"/>
-      <c r="B95" s="10"/>
-      <c r="D95" s="0"/>
-    </row>
-    <row r="96" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8"/>
-      <c r="B96" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8"/>
-      <c r="B97" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8"/>
-      <c r="B98" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8"/>
-      <c r="B99" s="10"/>
-    </row>
-    <row r="100" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="10"/>
-      <c r="B100" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" s="1" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="10"/>
-      <c r="B101" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8"/>
-      <c r="B102" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8"/>
-      <c r="B103" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8"/>
-      <c r="B104" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8"/>
-      <c r="B105" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8"/>
-      <c r="B106" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D106" s="0"/>
-    </row>
-    <row r="107" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="10"/>
-      <c r="B107" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="10"/>
-      <c r="B108" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8"/>
-      <c r="B109" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8"/>
-      <c r="B110" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8"/>
-      <c r="B111" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8"/>
-      <c r="B112" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8"/>
-      <c r="B113" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8"/>
-      <c r="B114" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8"/>
-      <c r="B115" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8"/>
-      <c r="B116" s="10"/>
-    </row>
-    <row r="117" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8"/>
-      <c r="B117" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="C117" s="9"/>
     </row>
     <row r="118" s="1" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8"/>
-      <c r="B118" s="11" t="s">
-        <v>128</v>
+      <c r="A118" s="14"/>
+      <c r="B118" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8"/>
-      <c r="B119" s="11" t="s">
-        <v>129</v>
+      <c r="A119" s="14"/>
+      <c r="B119" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="120" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8"/>
-      <c r="B120" s="11" t="s">
-        <v>130</v>
+      <c r="A120" s="14"/>
+      <c r="B120" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8"/>
-      <c r="B121" s="11" t="s">
-        <v>131</v>
+      <c r="A121" s="14"/>
+      <c r="B121" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
+      <c r="A122" s="14"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
     </row>
     <row r="123" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
+      <c r="A123" s="14"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
     </row>
     <row r="124" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
+      <c r="A124" s="14"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
     </row>
     <row r="125" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
+      <c r="A125" s="14"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
     </row>
     <row r="126" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
+      <c r="A126" s="17"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
     </row>
     <row r="127" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
+      <c r="A127" s="17"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
     </row>
     <row r="128" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
+      <c r="A128" s="14"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
     </row>
     <row r="129" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
+      <c r="A129" s="14"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
     </row>
     <row r="130" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
+      <c r="A130" s="14"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
     </row>
     <row r="131" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
+      <c r="A131" s="14"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
     </row>
     <row r="132" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="10"/>
-      <c r="C132" s="10"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
     </row>
     <row r="133" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="10"/>
-      <c r="C133" s="10"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
     </row>
     <row r="134" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="17"/>
     </row>
     <row r="135" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="17"/>
     </row>
     <row r="136" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="17"/>
     </row>
     <row r="137" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="17"/>
     </row>
     <row r="138" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="17"/>
     </row>
     <row r="139" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" s="1" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2325,63 +2909,65 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="54.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="54.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="32.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="28.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="19" width="68.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="54.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="54.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="32.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="28.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="24" width="27.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="25" width="68.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="true" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>139</v>
+    <row r="1" s="26" customFormat="true" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="22"/>
+      <c r="B2" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="28"/>
       <c r="D2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0"/>
+      <c r="B3" s="0" t="s">
+        <v>149</v>
+      </c>
       <c r="C3" s="0"/>
       <c r="D3" s="0"/>
       <c r="F3" s="0"/>
@@ -2389,725 +2975,725 @@
       <c r="H3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>147</v>
+      <c r="A4" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>151</v>
+      <c r="A5" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="F6" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>156</v>
+      <c r="G6" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="19" t="s">
+      <c r="A7" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>177</v>
+      <c r="G10" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>183</v>
+      <c r="A11" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>187</v>
+      <c r="A12" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>194</v>
+      <c r="A13" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="A14" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="D20" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
+      <c r="D21" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="D30" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>276</v>
+      <c r="E30" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>280</v>
+      <c r="A31" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3135,15 +3721,15 @@
       <c r="H34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="18"/>
+      <c r="A35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="18"/>
+      <c r="A36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="0"/>
@@ -3154,33 +3740,33 @@
       <c r="H37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18"/>
-      <c r="E38" s="18"/>
+      <c r="A38" s="24"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="18"/>
-      <c r="E39" s="18"/>
+      <c r="A39" s="24"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="18"/>
-      <c r="E40" s="18"/>
+      <c r="A40" s="24"/>
+      <c r="E40" s="24"/>
     </row>
     <row r="41" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18"/>
-      <c r="E41" s="18"/>
+      <c r="A41" s="24"/>
+      <c r="E41" s="24"/>
     </row>
     <row r="42" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18"/>
-      <c r="E42" s="18"/>
+      <c r="A42" s="24"/>
+      <c r="E42" s="24"/>
     </row>
     <row r="43" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18"/>
-      <c r="E43" s="18"/>
+      <c r="A43" s="24"/>
+      <c r="E43" s="24"/>
     </row>
     <row r="44" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="18"/>
+      <c r="A44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="24"/>
     </row>
     <row r="45" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="0"/>

--- a/TGU/Практика 4/Тестовая документация.xlsx
+++ b/TGU/Практика 4/Тестовая документация.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="288">
   <si>
     <t xml:space="preserve">До применения техник тест-дизайна</t>
   </si>
@@ -165,61 +165,61 @@
     <t xml:space="preserve">Попытка авторизации с не валидным данными</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка граничных значений</t>
-  </si>
-  <si>
     <t xml:space="preserve">Попытка авторизации с валидным данными</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка валидации методом эквивалентного разбиения</t>
+    <t xml:space="preserve">Ссылки и интеграции</t>
   </si>
   <si>
     <t xml:space="preserve">Функция отображения пароля (глаз)</t>
   </si>
   <si>
+    <t xml:space="preserve">Проверка ссылок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка интеграций</t>
+  </si>
+  <si>
     <t xml:space="preserve">Валидация обязательных полей</t>
   </si>
   <si>
-    <t xml:space="preserve">Ссылки и интеграции</t>
+    <t xml:space="preserve">Проверка работы якорей</t>
   </si>
   <si>
     <t xml:space="preserve">Максимальная и минимальная длина.</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка ссылок</t>
-  </si>
-  <si>
     <t xml:space="preserve">Диапазон допустимых символов, спецсимволы.</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка интеграций</t>
+    <t xml:space="preserve">Обработка ошибок </t>
   </si>
   <si>
     <t xml:space="preserve">Обязательность к заполнению.</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка работы якорей</t>
+    <t xml:space="preserve">Тестирование заполнения обязательных полей</t>
   </si>
   <si>
     <t xml:space="preserve">Система не отображает окно ошибки при незаполненных необязательных полях.</t>
   </si>
   <si>
-    <t xml:space="preserve">Обработка ошибок </t>
+    <t xml:space="preserve">Проверка отображение заглушек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка наличия ошибок консоли</t>
   </si>
   <si>
     <t xml:space="preserve">Ссылки на пользовательские соглашения</t>
   </si>
   <si>
-    <t xml:space="preserve">Тестирование заполнения обязательных полей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка отображение заглушек</t>
+    <t xml:space="preserve">Работа с БД</t>
   </si>
   <si>
     <t xml:space="preserve">Формы ввода</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка наличия ошибок консоли</t>
+    <t xml:space="preserve">Тестирование обмена данными форм с БД</t>
   </si>
   <si>
     <t xml:space="preserve">Числовые поля: они не должны принимать буквы, в этом случае должно отображаться соответствующее сообщение об ошибке.</t>
@@ -228,82 +228,82 @@
     <t xml:space="preserve">Отрицательные значения в числовых полях</t>
   </si>
   <si>
-    <t xml:space="preserve">Работа с БД</t>
+    <t xml:space="preserve">Кеш, cookie и сессии</t>
   </si>
   <si>
     <t xml:space="preserve">Протестируйте все поля ввода на спецсимволы.</t>
   </si>
   <si>
-    <t xml:space="preserve">Тестирование обмена данными форм с БД</t>
+    <t xml:space="preserve">Проверка кэша</t>
   </si>
   <si>
     <t xml:space="preserve">Проверить что текст не выезжает за границы поля.</t>
   </si>
   <si>
-    <t xml:space="preserve">Кеш, cookie и сессии</t>
+    <t xml:space="preserve">Проверка работы токенов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка наличия куки</t>
   </si>
   <si>
     <t xml:space="preserve">Всплывающие сообщения</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка кэша</t>
-  </si>
-  <si>
     <t xml:space="preserve">Всплывающие сообщения («Это поле ограничено N знаками»).</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка работы токенов</t>
+    <t xml:space="preserve">Безопасность</t>
   </si>
   <si>
     <t xml:space="preserve">Подтверждающие сообщения отображается для операций обновления и удаления.</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка наличия куки</t>
+    <t xml:space="preserve">Тестирование инъекций</t>
   </si>
   <si>
     <t xml:space="preserve">Сообщения об ошибках ввода.</t>
   </si>
   <si>
+    <t xml:space="preserve">Проверка шифрования </t>
+  </si>
+  <si>
     <t xml:space="preserve">Функциональность доступных кнопок.</t>
   </si>
   <si>
-    <t xml:space="preserve">Безопасность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тестирование инъекций</t>
+    <t xml:space="preserve">UX/UI</t>
   </si>
   <si>
     <t xml:space="preserve">Проверка обработки различных ошибок (страница не найдена, тайм-аут, ошибка сервера и т.д.).</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка шифрования </t>
+    <t xml:space="preserve">Проверка орфографических и грамматических ошибок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка картинок, шрифтов, текстов</t>
   </si>
   <si>
     <t xml:space="preserve">Проверка отображения ранее загруженных документов.</t>
   </si>
   <si>
-    <t xml:space="preserve">UX/UI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка орфографических и грамматических ошибок</t>
+    <t xml:space="preserve">Проверка отступов между элементами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестирование форм при разных разрешениях экрана</t>
   </si>
   <si>
     <t xml:space="preserve">Работа с файлами</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка картинок, шрифтов, текстов</t>
-  </si>
-  <si>
     <t xml:space="preserve">Функционал позволяет скачать/прикрепить/загрузить файлы/медиа (картинки, видео и т.д.).</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка отступов между элементами</t>
+    <t xml:space="preserve">Кросс-платформенное тестирование</t>
   </si>
   <si>
     <t xml:space="preserve">Тестирование валидации формы загрузки файлов</t>
   </si>
   <si>
-    <t xml:space="preserve">Тестирование форм при разных разрешениях экрана</t>
+    <t xml:space="preserve">Тестирование в различных средах</t>
   </si>
   <si>
     <r>
@@ -331,22 +331,16 @@
     <t xml:space="preserve">Функционал позволяет удалить ранее загруженные файлы.</t>
   </si>
   <si>
-    <t xml:space="preserve">Кросс-платформенное тестирование</t>
+    <t xml:space="preserve">Автотесты</t>
   </si>
   <si>
     <t xml:space="preserve">Проверить что файлы уходят на сервер только после нажатия соответствующей кнопки</t>
   </si>
   <si>
-    <t xml:space="preserve">Тестирование в различных средах</t>
+    <t xml:space="preserve">Проведение авто-тестов</t>
   </si>
   <si>
     <t xml:space="preserve">Почтовая функциональность системы.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автотесты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проведение авто-тестов</t>
   </si>
   <si>
     <t xml:space="preserve">Сохранение кэша</t>
@@ -1424,7 +1418,7 @@
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1794,8 +1788,8 @@
       <c r="E27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>6</v>
+      <c r="F27" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,8 +1804,8 @@
       <c r="E28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>6</v>
+      <c r="F28" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,8 +1839,8 @@
       <c r="E31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>17</v>
+      <c r="F31" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,75 +1868,73 @@
         <v>8</v>
       </c>
       <c r="D33" s="0"/>
-      <c r="E33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="17"/>
       <c r="B34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="0"/>
+      <c r="E34" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="0"/>
-      <c r="E34" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="17"/>
       <c r="B35" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="0"/>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
+      <c r="E35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="14"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
+      <c r="E36" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="17"/>
       <c r="B37" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="0"/>
-      <c r="E37" s="15" t="s">
-        <v>46</v>
+      <c r="E37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="17"/>
       <c r="B38" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="0"/>
-      <c r="E38" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="17"/>
@@ -1953,11 +1945,8 @@
         <v>17</v>
       </c>
       <c r="D39" s="0"/>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,8 +1961,8 @@
       <c r="E40" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>8</v>
+      <c r="F40" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1985,44 +1974,46 @@
         <v>17</v>
       </c>
       <c r="D41" s="0"/>
-      <c r="E41" s="19"/>
-    </row>
-    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="14"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="0"/>
-      <c r="E42" s="15" t="s">
-        <v>54</v>
+      <c r="E42" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="14"/>
       <c r="B43" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="0"/>
-      <c r="E43" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="0"/>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
@@ -2048,7 +2039,7 @@
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="F46" s="0"/>
       <c r="G46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2063,7 +2054,6 @@
       <c r="E47" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="17"/>
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="17"/>
@@ -2074,11 +2064,11 @@
         <v>8</v>
       </c>
       <c r="D48" s="0"/>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>17</v>
+      <c r="F48" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,31 +2080,34 @@
         <v>8</v>
       </c>
       <c r="D49" s="0"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="0"/>
+      <c r="E49" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="0"/>
-      <c r="E50" s="15" t="s">
-        <v>66</v>
+      <c r="E50" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="17"/>
       <c r="B51" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="0"/>
-      <c r="E51" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="16"/>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="17"/>
@@ -2125,11 +2118,8 @@
         <v>17</v>
       </c>
       <c r="D52" s="0"/>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2144,8 +2134,8 @@
       <c r="E53" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>8</v>
+      <c r="F53" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2157,33 +2147,33 @@
         <v>8</v>
       </c>
       <c r="D54" s="0"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="16"/>
+      <c r="E54" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="17"/>
       <c r="B55" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="0"/>
-      <c r="E55" s="15" t="s">
-        <v>75</v>
-      </c>
+      <c r="E55" s="21"/>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="0"/>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F56" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="14"/>
@@ -2201,26 +2191,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="0"/>
-      <c r="E58" s="21"/>
+      <c r="E58" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="17"/>
       <c r="B59" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="0"/>
-      <c r="E59" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F59" s="17"/>
+      <c r="E59" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="17"/>
@@ -2228,7 +2225,7 @@
       <c r="C60" s="17"/>
       <c r="D60" s="0"/>
       <c r="E60" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>8</v>
@@ -2237,16 +2234,12 @@
     <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="17"/>
       <c r="B61" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="0"/>
-      <c r="E61" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="E61" s="19"/>
+      <c r="F61" s="17"/>
     </row>
     <row r="62" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="17"/>
@@ -2257,12 +2250,10 @@
         <v>8</v>
       </c>
       <c r="D62" s="0"/>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F62" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="F62" s="0"/>
       <c r="G62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2290,8 +2281,6 @@
         <v>17</v>
       </c>
       <c r="D64" s="0"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="17"/>
     </row>
     <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="17"/>
@@ -2305,9 +2294,8 @@
       <c r="E65" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="66" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="17"/>
       <c r="B66" s="9" t="s">
         <v>91</v>
@@ -2316,11 +2304,11 @@
         <v>8</v>
       </c>
       <c r="D66" s="0"/>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F66" s="11" t="s">
-        <v>8</v>
+      <c r="F66" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2338,34 +2326,31 @@
         <v>8</v>
       </c>
       <c r="D68" s="0"/>
-      <c r="E68" s="15" t="s">
-        <v>94</v>
-      </c>
+      <c r="E68" s="0"/>
+      <c r="F68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="14"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="0"/>
-      <c r="E69" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="14"/>
       <c r="B70" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="23"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="14"/>
       <c r="B71" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>8</v>
@@ -2375,7 +2360,7 @@
     <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="14"/>
       <c r="B72" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>17</v>
@@ -2391,7 +2376,7 @@
     <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="14"/>
       <c r="B74" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="0"/>
@@ -2399,7 +2384,7 @@
     <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="17"/>
       <c r="B75" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>17</v>
@@ -2409,7 +2394,7 @@
     <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="17"/>
       <c r="B76" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>17</v>
@@ -2419,7 +2404,7 @@
     <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="17"/>
       <c r="B77" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>8</v>
@@ -2435,7 +2420,7 @@
     <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="17"/>
       <c r="B79" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="0"/>
@@ -2443,7 +2428,7 @@
     <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="17"/>
       <c r="B80" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>8</v>
@@ -2453,7 +2438,7 @@
     <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="17"/>
       <c r="B81" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>17</v>
@@ -2469,7 +2454,7 @@
     <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="17"/>
       <c r="B83" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="23"/>
@@ -2477,7 +2462,7 @@
     <row r="84" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="14"/>
       <c r="B84" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>8</v>
@@ -2487,7 +2472,7 @@
     <row r="85" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="14"/>
       <c r="B85" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>8</v>
@@ -2497,7 +2482,7 @@
     <row r="86" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="14"/>
       <c r="B86" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>8</v>
@@ -2507,7 +2492,7 @@
     <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="B87" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>17</v>
@@ -2517,7 +2502,7 @@
     <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
       <c r="B88" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>8</v>
@@ -2527,7 +2512,7 @@
     <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="14"/>
       <c r="B89" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>8</v>
@@ -2537,7 +2522,7 @@
     <row r="90" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="14"/>
       <c r="B90" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>17</v>
@@ -2547,7 +2532,7 @@
     <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="14"/>
       <c r="B91" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>17</v>
@@ -2557,7 +2542,7 @@
     <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="14"/>
       <c r="B92" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>17</v>
@@ -2567,7 +2552,7 @@
     <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="14"/>
       <c r="B93" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>8</v>
@@ -2577,7 +2562,7 @@
     <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="14"/>
       <c r="B94" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>8</v>
@@ -2593,14 +2578,14 @@
     <row r="96" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="14"/>
       <c r="B96" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C96" s="9"/>
     </row>
     <row r="97" s="1" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="14"/>
       <c r="B97" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>8</v>
@@ -2609,7 +2594,7 @@
     <row r="98" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="14"/>
       <c r="B98" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>17</v>
@@ -2623,14 +2608,14 @@
     <row r="100" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="17"/>
       <c r="B100" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C100" s="9"/>
     </row>
     <row r="101" s="1" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="17"/>
       <c r="B101" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>8</v>
@@ -2639,7 +2624,7 @@
     <row r="102" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="14"/>
       <c r="B102" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>8</v>
@@ -2648,7 +2633,7 @@
     <row r="103" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="14"/>
       <c r="B103" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>17</v>
@@ -2657,7 +2642,7 @@
     <row r="104" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="14"/>
       <c r="B104" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>17</v>
@@ -2666,7 +2651,7 @@
     <row r="105" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="14"/>
       <c r="B105" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>8</v>
@@ -2675,7 +2660,7 @@
     <row r="106" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="14"/>
       <c r="B106" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>8</v>
@@ -2685,7 +2670,7 @@
     <row r="107" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="17"/>
       <c r="B107" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>17</v>
@@ -2694,7 +2679,7 @@
     <row r="108" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="17"/>
       <c r="B108" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>8</v>
@@ -2703,7 +2688,7 @@
     <row r="109" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="14"/>
       <c r="B109" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>8</v>
@@ -2712,7 +2697,7 @@
     <row r="110" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="14"/>
       <c r="B110" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>8</v>
@@ -2721,7 +2706,7 @@
     <row r="111" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="14"/>
       <c r="B111" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>17</v>
@@ -2730,7 +2715,7 @@
     <row r="112" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="14"/>
       <c r="B112" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>8</v>
@@ -2739,7 +2724,7 @@
     <row r="113" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="14"/>
       <c r="B113" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>17</v>
@@ -2748,7 +2733,7 @@
     <row r="114" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="14"/>
       <c r="B114" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>17</v>
@@ -2757,7 +2742,7 @@
     <row r="115" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="14"/>
       <c r="B115" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>8</v>
@@ -2771,14 +2756,14 @@
     <row r="117" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="14"/>
       <c r="B117" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C117" s="9"/>
     </row>
     <row r="118" s="1" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="14"/>
       <c r="B118" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>8</v>
@@ -2787,7 +2772,7 @@
     <row r="119" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="14"/>
       <c r="B119" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>8</v>
@@ -2796,7 +2781,7 @@
     <row r="120" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="14"/>
       <c r="B120" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>8</v>
@@ -2805,7 +2790,7 @@
     <row r="121" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="14"/>
       <c r="B121" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C121" s="11" t="s">
         <v>8</v>
@@ -2910,10 +2895,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="F31 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="54.18"/>
@@ -2927,28 +2912,28 @@
   <sheetData>
     <row r="1" s="26" customFormat="true" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>145</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>147</v>
       </c>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
@@ -2956,7 +2941,7 @@
     </row>
     <row r="2" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="0"/>
@@ -2966,7 +2951,7 @@
     </row>
     <row r="3" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" s="0"/>
@@ -2976,724 +2961,724 @@
     </row>
     <row r="4" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="G4" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="25" t="s">
         <v>154</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="D5" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>158</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="D6" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="E6" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>163</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="E7" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="F7" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="25" t="s">
         <v>169</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="E8" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="G8" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="25" t="s">
         <v>175</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="E9" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="25" t="s">
         <v>180</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="E10" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>184</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="D11" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="E11" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="G11" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="D12" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>194</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="D13" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="E13" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="G13" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="24" t="s">
+      <c r="H13" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="D14" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="E14" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>206</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="E15" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="24" t="s">
         <v>210</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="D16" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="E16" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="G16" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="H16" s="25" t="s">
         <v>216</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="D17" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="E17" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="G17" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17" s="25" t="s">
         <v>222</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="D18" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="E18" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="H18" s="25" t="s">
         <v>227</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="D19" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="E19" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19" s="25" t="s">
         <v>232</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="E20" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" s="25" t="s">
         <v>236</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="E21" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="H21" s="25" t="s">
         <v>240</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="D22" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="E22" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="G22" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H22" s="25" t="s">
         <v>246</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="D23" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H23" s="25" t="s">
         <v>250</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="E24" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H24" s="25" t="s">
         <v>254</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="D25" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="E25" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="F25" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25" s="25" t="s">
         <v>260</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="D26" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26" s="25" t="s">
         <v>264</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="D27" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H27" s="25" t="s">
         <v>268</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="D28" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="E28" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28" s="25" t="s">
         <v>273</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="G29" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="H29" s="25" t="s">
         <v>278</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="D30" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="G30" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="H30" s="25" t="s">
         <v>283</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="D31" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="H31" s="25" t="s">
         <v>287</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="59.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
